--- a/output/0c710442-6047-497d-ba64-d9c31122e53b/0c710442-6047-497d-ba64-d9c31122e53b_notes_transformed_standard_cropped_df.xlsx
+++ b/output/0c710442-6047-497d-ba64-d9c31122e53b/0c710442-6047-497d-ba64-d9c31122e53b_notes_transformed_standard_cropped_df.xlsx
@@ -31,13 +31,14 @@
     <sheet name="4_7_fd791fd0-d8c8-32" sheetId="22" r:id="rId22"/>
     <sheet name="4_7_b1818398-7624-37" sheetId="23" r:id="rId23"/>
     <sheet name="4_7_412c019a-25e7-31" sheetId="24" r:id="rId24"/>
+    <sheet name="4_7_d493819c-94d0-30" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="116">
   <si>
     <t>rows</t>
   </si>
@@ -57,7 +58,7 @@
     <t xml:space="preserve"> Short-term deposits</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> Total</t>
   </si>
   <si>
     <t>$000</t>
@@ -69,7 +70,7 @@
     <t>Related party receivables: other related parties (Note 21.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Related party receivables: </t>
+    <t>Related party receivables: Total</t>
   </si>
   <si>
     <t>Related party receivables: Finance receivables</t>
@@ -84,7 +85,7 @@
     <t>Non-current Allowance for expected credit losses</t>
   </si>
   <si>
-    <t xml:space="preserve">Non-current </t>
+    <t>Non-current Total</t>
   </si>
   <si>
     <t>$000 11,052 (28)</t>
@@ -129,7 +130,7 @@
     <t>Current Sundry debtors</t>
   </si>
   <si>
-    <t xml:space="preserve">Current </t>
+    <t>Current Total</t>
   </si>
   <si>
     <t>Cost At1J January 2021 2113 16328 794 21160</t>
@@ -276,7 +277,7 @@
     <t>Related party payables: other related parties (Note 21.3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Related party payables: </t>
+    <t>Related party payables: Total</t>
   </si>
   <si>
     <t>Current Warranty provision</t>
@@ -333,7 +334,7 @@
     <t>available: $000</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12,540,000 ordinary shares fully issued and paid 2020.12,540,000)</t>
+    <t>Total 12,540,000 ordinary shares fully issued and paid 2020.12,540,000)</t>
   </si>
   <si>
     <t>Interest revenue Interest income from wholesale lending</t>
@@ -3148,6 +3149,229 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>63330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>18999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>-1708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>17357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10">
+        <v>13035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>13541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3170,58 +3394,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>2021</v>
       </c>
       <c r="D2">
-        <v>63330</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D3">
-        <v>18999</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D4">
-        <v>43450</v>
+        <v>-285</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5">
-        <v>13035</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
